--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H2">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I2">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J2">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.406579333333333</v>
+        <v>22.01543233333333</v>
       </c>
       <c r="N2">
-        <v>28.219738</v>
+        <v>66.046297</v>
       </c>
       <c r="O2">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891664</v>
       </c>
       <c r="P2">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891665</v>
       </c>
       <c r="Q2">
-        <v>0.17764325071</v>
+        <v>1.215728865833889</v>
       </c>
       <c r="R2">
-        <v>1.59878925639</v>
+        <v>10.941559792505</v>
       </c>
       <c r="S2">
-        <v>0.01875436912942152</v>
+        <v>0.1153529366569005</v>
       </c>
       <c r="T2">
-        <v>0.01875436912942152</v>
+        <v>0.1153529366569005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H3">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I3">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J3">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>16.184394</v>
       </c>
       <c r="O3">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="P3">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="Q3">
-        <v>0.10188076023</v>
+        <v>0.2979097368899999</v>
       </c>
       <c r="R3">
-        <v>0.91692684207</v>
+        <v>2.681187632009999</v>
       </c>
       <c r="S3">
-        <v>0.01075587942070883</v>
+        <v>0.02826679860511059</v>
       </c>
       <c r="T3">
-        <v>0.01075587942070883</v>
+        <v>0.02826679860511059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H4">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I4">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J4">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.08490933333333334</v>
+        <v>0.2767023333333333</v>
       </c>
       <c r="N4">
-        <v>0.254728</v>
+        <v>0.830107</v>
       </c>
       <c r="O4">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751967</v>
       </c>
       <c r="P4">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751968</v>
       </c>
       <c r="Q4">
-        <v>0.00160351276</v>
+        <v>0.01527996401722222</v>
       </c>
       <c r="R4">
-        <v>0.01443161484</v>
+        <v>0.137519676155</v>
       </c>
       <c r="S4">
-        <v>0.0001692879976277344</v>
+        <v>0.001449820573429721</v>
       </c>
       <c r="T4">
-        <v>0.0001692879976277344</v>
+        <v>0.001449820573429722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H5">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I5">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J5">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.896302666666667</v>
+        <v>2.193502666666667</v>
       </c>
       <c r="N5">
-        <v>5.688908000000001</v>
+        <v>6.580508</v>
       </c>
       <c r="O5">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034463</v>
       </c>
       <c r="P5">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034464</v>
       </c>
       <c r="Q5">
-        <v>0.03581167586000001</v>
+        <v>0.1211288730911111</v>
       </c>
       <c r="R5">
-        <v>0.32230508274</v>
+        <v>1.09015985782</v>
       </c>
       <c r="S5">
-        <v>0.003780753760907318</v>
+        <v>0.01149316399213459</v>
       </c>
       <c r="T5">
-        <v>0.003780753760907318</v>
+        <v>0.01149316399213459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H6">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I6">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J6">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3736923333333333</v>
+        <v>0.6286269999999999</v>
       </c>
       <c r="N6">
-        <v>1.121077</v>
+        <v>1.885881</v>
       </c>
       <c r="O6">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411222</v>
       </c>
       <c r="P6">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411223</v>
       </c>
       <c r="Q6">
-        <v>0.007057179715000001</v>
+        <v>0.03471383065166666</v>
       </c>
       <c r="R6">
-        <v>0.063514617435</v>
+        <v>0.3124244758649999</v>
       </c>
       <c r="S6">
-        <v>0.0007450491524940626</v>
+        <v>0.003293779082504082</v>
       </c>
       <c r="T6">
-        <v>0.0007450491524940626</v>
+        <v>0.003293779082504082</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H7">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I7">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J7">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4642293333333333</v>
+        <v>0.5242426666666667</v>
       </c>
       <c r="N7">
-        <v>1.392688</v>
+        <v>1.572728</v>
       </c>
       <c r="O7">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944046</v>
       </c>
       <c r="P7">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944047</v>
       </c>
       <c r="Q7">
-        <v>0.00876697096</v>
+        <v>0.02894955379111111</v>
       </c>
       <c r="R7">
-        <v>0.07890273864</v>
+        <v>0.26054598412</v>
       </c>
       <c r="S7">
-        <v>0.0009255573114858757</v>
+        <v>0.002746842769436926</v>
       </c>
       <c r="T7">
-        <v>0.0009255573114858756</v>
+        <v>0.002746842769436927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.498792</v>
       </c>
       <c r="I8">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J8">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.406579333333333</v>
+        <v>22.01543233333333</v>
       </c>
       <c r="N8">
-        <v>28.219738</v>
+        <v>66.046297</v>
       </c>
       <c r="O8">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891664</v>
       </c>
       <c r="P8">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891665</v>
       </c>
       <c r="Q8">
-        <v>1.563975506277333</v>
+        <v>3.660373841469333</v>
       </c>
       <c r="R8">
-        <v>14.075779556496</v>
+        <v>32.943364573224</v>
       </c>
       <c r="S8">
-        <v>0.1651139226335261</v>
+        <v>0.3473100653787384</v>
       </c>
       <c r="T8">
-        <v>0.1651139226335261</v>
+        <v>0.3473100653787385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.498792</v>
       </c>
       <c r="I9">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J9">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>16.184394</v>
       </c>
       <c r="O9">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="P9">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="Q9">
         <v>0.8969606946719998</v>
@@ -1013,10 +1013,10 @@
         <v>8.072646252047999</v>
       </c>
       <c r="S9">
-        <v>0.09469502441115871</v>
+        <v>0.08510701119633189</v>
       </c>
       <c r="T9">
-        <v>0.09469502441115872</v>
+        <v>0.08510701119633191</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>0.498792</v>
       </c>
       <c r="I10">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J10">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.08490933333333334</v>
+        <v>0.2767023333333333</v>
       </c>
       <c r="N10">
-        <v>0.254728</v>
+        <v>0.830107</v>
       </c>
       <c r="O10">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751967</v>
       </c>
       <c r="P10">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751968</v>
       </c>
       <c r="Q10">
-        <v>0.01411736539733333</v>
+        <v>0.04600563674933333</v>
       </c>
       <c r="R10">
-        <v>0.127056288576</v>
+        <v>0.414050730744</v>
       </c>
       <c r="S10">
-        <v>0.001490415654624179</v>
+        <v>0.004365188201866162</v>
       </c>
       <c r="T10">
-        <v>0.00149041565462418</v>
+        <v>0.004365188201866163</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.498792</v>
       </c>
       <c r="I11">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J11">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.896302666666667</v>
+        <v>2.193502666666667</v>
       </c>
       <c r="N11">
-        <v>5.688908000000001</v>
+        <v>6.580508</v>
       </c>
       <c r="O11">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034463</v>
       </c>
       <c r="P11">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034464</v>
       </c>
       <c r="Q11">
-        <v>0.3152868665706667</v>
+        <v>0.3647005273706667</v>
       </c>
       <c r="R11">
-        <v>2.837581799136</v>
+        <v>3.282304746336</v>
       </c>
       <c r="S11">
-        <v>0.03328584820246196</v>
+        <v>0.03460416052856546</v>
       </c>
       <c r="T11">
-        <v>0.03328584820246196</v>
+        <v>0.03460416052856547</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.498792</v>
       </c>
       <c r="I12">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J12">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3736923333333333</v>
+        <v>0.6286269999999999</v>
       </c>
       <c r="N12">
-        <v>1.121077</v>
+        <v>1.885881</v>
       </c>
       <c r="O12">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411222</v>
       </c>
       <c r="P12">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411223</v>
       </c>
       <c r="Q12">
-        <v>0.06213158210933333</v>
+        <v>0.104518039528</v>
       </c>
       <c r="R12">
-        <v>0.559184238984</v>
+        <v>0.940662355752</v>
       </c>
       <c r="S12">
-        <v>0.006559430886432237</v>
+        <v>0.009917065500379539</v>
       </c>
       <c r="T12">
-        <v>0.006559430886432239</v>
+        <v>0.009917065500379541</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>0.498792</v>
       </c>
       <c r="I13">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J13">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4642293333333333</v>
+        <v>0.5242426666666667</v>
       </c>
       <c r="N13">
-        <v>1.392688</v>
+        <v>1.572728</v>
       </c>
       <c r="O13">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944046</v>
       </c>
       <c r="P13">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944047</v>
       </c>
       <c r="Q13">
-        <v>0.07718462587733332</v>
+        <v>0.08716268273066667</v>
       </c>
       <c r="R13">
-        <v>0.694661632896</v>
+        <v>0.7844641445760001</v>
       </c>
       <c r="S13">
-        <v>0.008148629115005962</v>
+        <v>0.008270323838185396</v>
       </c>
       <c r="T13">
-        <v>0.008148629115005964</v>
+        <v>0.008270323838185397</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H14">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I14">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J14">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.406579333333333</v>
+        <v>22.01543233333333</v>
       </c>
       <c r="N14">
-        <v>28.219738</v>
+        <v>66.046297</v>
       </c>
       <c r="O14">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891664</v>
       </c>
       <c r="P14">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891665</v>
       </c>
       <c r="Q14">
-        <v>1.03411229901</v>
+        <v>0.6033035691852223</v>
       </c>
       <c r="R14">
-        <v>9.307010691089999</v>
+        <v>5.429732122667</v>
       </c>
       <c r="S14">
-        <v>0.1091745602458541</v>
+        <v>0.05724371638849755</v>
       </c>
       <c r="T14">
-        <v>0.1091745602458541</v>
+        <v>0.05724371638849755</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H15">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I15">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J15">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>16.184394</v>
       </c>
       <c r="O15">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="P15">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="Q15">
-        <v>0.5930771181299999</v>
+        <v>0.147837246126</v>
       </c>
       <c r="R15">
-        <v>5.33769406317</v>
+        <v>1.330535215134</v>
       </c>
       <c r="S15">
-        <v>0.06261305820045669</v>
+        <v>0.01402735508480818</v>
       </c>
       <c r="T15">
-        <v>0.06261305820045671</v>
+        <v>0.01402735508480818</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H16">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I16">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J16">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.08490933333333334</v>
+        <v>0.2767023333333333</v>
       </c>
       <c r="N16">
-        <v>0.254728</v>
+        <v>0.830107</v>
       </c>
       <c r="O16">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751967</v>
       </c>
       <c r="P16">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751968</v>
       </c>
       <c r="Q16">
-        <v>0.00933450756</v>
+        <v>0.007582658508555556</v>
       </c>
       <c r="R16">
-        <v>0.08401056804000001</v>
+        <v>0.06824392657700001</v>
       </c>
       <c r="S16">
-        <v>0.0009854739750704252</v>
+        <v>0.0007194712169874798</v>
       </c>
       <c r="T16">
-        <v>0.0009854739750704252</v>
+        <v>0.0007194712169874798</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H17">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I17">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J17">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.896302666666667</v>
+        <v>2.193502666666667</v>
       </c>
       <c r="N17">
-        <v>5.688908000000001</v>
+        <v>6.580508</v>
       </c>
       <c r="O17">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034463</v>
       </c>
       <c r="P17">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034464</v>
       </c>
       <c r="Q17">
-        <v>0.20847003366</v>
+        <v>0.06011001590977779</v>
       </c>
       <c r="R17">
-        <v>1.87623030294</v>
+        <v>0.5409901431880001</v>
       </c>
       <c r="S17">
-        <v>0.02200885171857802</v>
+        <v>0.00570346485351388</v>
       </c>
       <c r="T17">
-        <v>0.02200885171857802</v>
+        <v>0.005703464853513881</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H18">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I18">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J18">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3736923333333333</v>
+        <v>0.6286269999999999</v>
       </c>
       <c r="N18">
-        <v>1.121077</v>
+        <v>1.885881</v>
       </c>
       <c r="O18">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411222</v>
       </c>
       <c r="P18">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411223</v>
       </c>
       <c r="Q18">
-        <v>0.041081866665</v>
+        <v>0.01722668476566667</v>
       </c>
       <c r="R18">
-        <v>0.369736799985</v>
+        <v>0.155040162891</v>
       </c>
       <c r="S18">
-        <v>0.004337144748712458</v>
+        <v>0.001634532774887533</v>
       </c>
       <c r="T18">
-        <v>0.004337144748712459</v>
+        <v>0.001634532774887533</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H19">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I19">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J19">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4642293333333333</v>
+        <v>0.5242426666666667</v>
       </c>
       <c r="N19">
-        <v>1.392688</v>
+        <v>1.572728</v>
       </c>
       <c r="O19">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944046</v>
       </c>
       <c r="P19">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944047</v>
       </c>
       <c r="Q19">
-        <v>0.05103505176</v>
+        <v>0.01436617128977778</v>
       </c>
       <c r="R19">
-        <v>0.45931546584</v>
+        <v>0.129295541608</v>
       </c>
       <c r="S19">
-        <v>0.005387934500301813</v>
+        <v>0.001363116475526993</v>
       </c>
       <c r="T19">
-        <v>0.005387934500301813</v>
+        <v>0.001363116475526993</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H20">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I20">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J20">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.406579333333333</v>
+        <v>22.01543233333333</v>
       </c>
       <c r="N20">
-        <v>28.219738</v>
+        <v>66.046297</v>
       </c>
       <c r="O20">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891664</v>
       </c>
       <c r="P20">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891665</v>
       </c>
       <c r="Q20">
-        <v>1.415524006765111</v>
+        <v>1.034174933858333</v>
       </c>
       <c r="R20">
-        <v>12.739716060886</v>
+        <v>9.307574404724999</v>
       </c>
       <c r="S20">
-        <v>0.1494414205342857</v>
+        <v>0.0981264153464745</v>
       </c>
       <c r="T20">
-        <v>0.1494414205342857</v>
+        <v>0.09812641534647451</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H21">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I21">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J21">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>16.184394</v>
       </c>
       <c r="O21">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="P21">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="Q21">
-        <v>0.8118217909019998</v>
+        <v>0.2534206360499999</v>
       </c>
       <c r="R21">
-        <v>7.306396118117998</v>
+        <v>2.280785724449999</v>
       </c>
       <c r="S21">
-        <v>0.08570663660472574</v>
+        <v>0.02404550504587698</v>
       </c>
       <c r="T21">
-        <v>0.08570663660472574</v>
+        <v>0.02404550504587698</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H22">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I22">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J22">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.08490933333333334</v>
+        <v>0.2767023333333333</v>
       </c>
       <c r="N22">
-        <v>0.254728</v>
+        <v>0.830107</v>
       </c>
       <c r="O22">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751967</v>
       </c>
       <c r="P22">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751968</v>
       </c>
       <c r="Q22">
-        <v>0.01277735460177778</v>
+        <v>0.01299809210833333</v>
       </c>
       <c r="R22">
-        <v>0.114996191416</v>
+        <v>0.116982828975</v>
       </c>
       <c r="S22">
-        <v>0.001348946406584552</v>
+        <v>0.00123330796674363</v>
       </c>
       <c r="T22">
-        <v>0.001348946406584552</v>
+        <v>0.00123330796674363</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H23">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I23">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J23">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.896302666666667</v>
+        <v>2.193502666666667</v>
       </c>
       <c r="N23">
-        <v>5.688908000000001</v>
+        <v>6.580508</v>
       </c>
       <c r="O23">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034463</v>
       </c>
       <c r="P23">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034464</v>
       </c>
       <c r="Q23">
-        <v>0.2853600499862223</v>
+        <v>0.1030397877666667</v>
       </c>
       <c r="R23">
-        <v>2.568240449876</v>
+        <v>0.9273580899</v>
       </c>
       <c r="S23">
-        <v>0.03012637795605552</v>
+        <v>0.009776803401995394</v>
       </c>
       <c r="T23">
-        <v>0.03012637795605552</v>
+        <v>0.009776803401995396</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H24">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I24">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J24">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3736923333333333</v>
+        <v>0.6286269999999999</v>
       </c>
       <c r="N24">
-        <v>1.121077</v>
+        <v>1.885881</v>
       </c>
       <c r="O24">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411222</v>
       </c>
       <c r="P24">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411223</v>
       </c>
       <c r="Q24">
-        <v>0.05623409426877778</v>
+        <v>0.02952975332499999</v>
       </c>
       <c r="R24">
-        <v>0.506106848419</v>
+        <v>0.265767779925</v>
       </c>
       <c r="S24">
-        <v>0.00593681413372142</v>
+        <v>0.002801894287881494</v>
       </c>
       <c r="T24">
-        <v>0.00593681413372142</v>
+        <v>0.002801894287881495</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H25">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I25">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J25">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4642293333333333</v>
+        <v>0.5242426666666667</v>
       </c>
       <c r="N25">
-        <v>1.392688</v>
+        <v>1.572728</v>
       </c>
       <c r="O25">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944046</v>
       </c>
       <c r="P25">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944047</v>
       </c>
       <c r="Q25">
-        <v>0.06985831328177777</v>
+        <v>0.02462629926666667</v>
       </c>
       <c r="R25">
-        <v>0.6287248195359999</v>
+        <v>0.2216366934</v>
       </c>
       <c r="S25">
-        <v>0.007375166739005632</v>
+        <v>0.002336636086577725</v>
       </c>
       <c r="T25">
-        <v>0.007375166739005631</v>
+        <v>0.002336636086577726</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H26">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I26">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J26">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.406579333333333</v>
+        <v>22.01543233333333</v>
       </c>
       <c r="N26">
-        <v>28.219738</v>
+        <v>66.046297</v>
       </c>
       <c r="O26">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891664</v>
       </c>
       <c r="P26">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891665</v>
       </c>
       <c r="Q26">
-        <v>0.1248378498591111</v>
+        <v>0.236577835854</v>
       </c>
       <c r="R26">
-        <v>1.123540648732</v>
+        <v>2.129200522686</v>
       </c>
       <c r="S26">
-        <v>0.01317953318363407</v>
+        <v>0.02244739668575232</v>
       </c>
       <c r="T26">
-        <v>0.01317953318363407</v>
+        <v>0.02244739668575232</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H27">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I27">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J27">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>16.184394</v>
       </c>
       <c r="O27">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="P27">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="Q27">
-        <v>0.07159616252399997</v>
+        <v>0.05797249930799999</v>
       </c>
       <c r="R27">
-        <v>0.6443654627159998</v>
+        <v>0.5217524937719999</v>
       </c>
       <c r="S27">
-        <v>0.00755863707097522</v>
+        <v>0.005500649222416053</v>
       </c>
       <c r="T27">
-        <v>0.007558637070975221</v>
+        <v>0.005500649222416054</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H28">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I28">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J28">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.08490933333333334</v>
+        <v>0.2767023333333333</v>
       </c>
       <c r="N28">
-        <v>0.254728</v>
+        <v>0.830107</v>
       </c>
       <c r="O28">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751967</v>
       </c>
       <c r="P28">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751968</v>
       </c>
       <c r="Q28">
-        <v>0.001126860065777778</v>
+        <v>0.002973443274</v>
       </c>
       <c r="R28">
-        <v>0.010141740592</v>
+        <v>0.026760989466</v>
       </c>
       <c r="S28">
-        <v>0.0001189662401826955</v>
+        <v>0.0002821315042177126</v>
       </c>
       <c r="T28">
-        <v>0.0001189662401826955</v>
+        <v>0.0002821315042177127</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H29">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I29">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J29">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.896302666666667</v>
+        <v>2.193502666666667</v>
       </c>
       <c r="N29">
-        <v>5.688908000000001</v>
+        <v>6.580508</v>
       </c>
       <c r="O29">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034463</v>
       </c>
       <c r="P29">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034464</v>
       </c>
       <c r="Q29">
-        <v>0.02516646479022222</v>
+        <v>0.023571379656</v>
       </c>
       <c r="R29">
-        <v>0.226498183112</v>
+        <v>0.212142416904</v>
       </c>
       <c r="S29">
-        <v>0.002656904602184519</v>
+        <v>0.002236541338112667</v>
       </c>
       <c r="T29">
-        <v>0.002656904602184519</v>
+        <v>0.002236541338112668</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H30">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I30">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J30">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.3736923333333333</v>
+        <v>0.6286269999999999</v>
       </c>
       <c r="N30">
-        <v>1.121077</v>
+        <v>1.885881</v>
       </c>
       <c r="O30">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411222</v>
       </c>
       <c r="P30">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411223</v>
       </c>
       <c r="Q30">
-        <v>0.004959395519777777</v>
+        <v>0.006755225742</v>
       </c>
       <c r="R30">
-        <v>0.044634559678</v>
+        <v>0.060797031678</v>
       </c>
       <c r="S30">
-        <v>0.000523579330286799</v>
+        <v>0.0006409612776492719</v>
       </c>
       <c r="T30">
-        <v>0.0005235793302867991</v>
+        <v>0.000640961277649272</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H31">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I31">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J31">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4642293333333333</v>
+        <v>0.5242426666666667</v>
       </c>
       <c r="N31">
-        <v>1.392688</v>
+        <v>1.572728</v>
       </c>
       <c r="O31">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944046</v>
       </c>
       <c r="P31">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944047</v>
       </c>
       <c r="Q31">
-        <v>0.006160942225777777</v>
+        <v>0.005633511696000001</v>
       </c>
       <c r="R31">
-        <v>0.05544848003199999</v>
+        <v>0.05070160526400001</v>
       </c>
       <c r="S31">
-        <v>0.00065043047920746</v>
+        <v>0.0005345288214234006</v>
       </c>
       <c r="T31">
-        <v>0.00065043047920746</v>
+        <v>0.0005345288214234007</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H32">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I32">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J32">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>9.406579333333333</v>
+        <v>22.01543233333333</v>
       </c>
       <c r="N32">
-        <v>28.219738</v>
+        <v>66.046297</v>
       </c>
       <c r="O32">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891664</v>
       </c>
       <c r="P32">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891665</v>
       </c>
       <c r="Q32">
-        <v>0.7405172803844443</v>
+        <v>0.7264945900451111</v>
       </c>
       <c r="R32">
-        <v>6.66465552346</v>
+        <v>6.538451310406</v>
       </c>
       <c r="S32">
-        <v>0.07817879017377954</v>
+        <v>0.06893254473280315</v>
       </c>
       <c r="T32">
-        <v>0.07817879017377956</v>
+        <v>0.06893254473280315</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H33">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I33">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J33">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>16.184394</v>
       </c>
       <c r="O33">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="P33">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="Q33">
-        <v>0.4246964812199999</v>
+        <v>0.178024737468</v>
       </c>
       <c r="R33">
-        <v>3.822268330979999</v>
+        <v>1.602222637212</v>
       </c>
       <c r="S33">
-        <v>0.04483657299071226</v>
+        <v>0.01689165803464062</v>
       </c>
       <c r="T33">
-        <v>0.04483657299071227</v>
+        <v>0.01689165803464062</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H34">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I34">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J34">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.08490933333333334</v>
+        <v>0.2767023333333333</v>
       </c>
       <c r="N34">
-        <v>0.254728</v>
+        <v>0.830107</v>
       </c>
       <c r="O34">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751967</v>
       </c>
       <c r="P34">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751968</v>
       </c>
       <c r="Q34">
-        <v>0.00668434575111111</v>
+        <v>0.009130992531777777</v>
       </c>
       <c r="R34">
-        <v>0.06015911176</v>
+        <v>0.08217893278600001</v>
       </c>
       <c r="S34">
-        <v>0.0007056878722044307</v>
+        <v>0.0008663829845072619</v>
       </c>
       <c r="T34">
-        <v>0.0007056878722044308</v>
+        <v>0.0008663829845072621</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H35">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I35">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J35">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.896302666666667</v>
+        <v>2.193502666666667</v>
       </c>
       <c r="N35">
-        <v>5.688908000000001</v>
+        <v>6.580508</v>
       </c>
       <c r="O35">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034463</v>
       </c>
       <c r="P35">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034464</v>
       </c>
       <c r="Q35">
-        <v>0.1492832669288889</v>
+        <v>0.07238412566488889</v>
       </c>
       <c r="R35">
-        <v>1.34354940236</v>
+        <v>0.651457130984</v>
       </c>
       <c r="S35">
-        <v>0.01576031445968548</v>
+        <v>0.006868078646022637</v>
       </c>
       <c r="T35">
-        <v>0.01576031445968549</v>
+        <v>0.006868078646022639</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H36">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I36">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J36">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.3736923333333333</v>
+        <v>0.6286269999999999</v>
       </c>
       <c r="N36">
-        <v>1.121077</v>
+        <v>1.885881</v>
       </c>
       <c r="O36">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411222</v>
       </c>
       <c r="P36">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411223</v>
       </c>
       <c r="Q36">
-        <v>0.02941830612111111</v>
+        <v>0.02074427191533333</v>
       </c>
       <c r="R36">
-        <v>0.26476475509</v>
+        <v>0.186698447238</v>
       </c>
       <c r="S36">
-        <v>0.003105785161848429</v>
+        <v>0.001968294700810305</v>
       </c>
       <c r="T36">
-        <v>0.003105785161848429</v>
+        <v>0.001968294700810305</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H37">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I37">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J37">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4642293333333333</v>
+        <v>0.5242426666666667</v>
       </c>
       <c r="N37">
-        <v>1.392688</v>
+        <v>1.572728</v>
       </c>
       <c r="O37">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944046</v>
       </c>
       <c r="P37">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944047</v>
       </c>
       <c r="Q37">
-        <v>0.03654568055111111</v>
+        <v>0.01729965850488889</v>
       </c>
       <c r="R37">
-        <v>0.32891112496</v>
+        <v>0.155696926544</v>
       </c>
       <c r="S37">
-        <v>0.003858244996092476</v>
+        <v>0.001641456798290024</v>
       </c>
       <c r="T37">
-        <v>0.003858244996092476</v>
+        <v>0.001641456798290024</v>
       </c>
     </row>
   </sheetData>
